--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Documents/NFS/ Научка/matlabdrones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFA0035-A4F5-E545-8F0F-4D41633DAEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FC4F3-1229-0D4A-B000-CF84E9635988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="3" r:id="rId1"/>
@@ -23,12 +23,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -282,6 +278,12 @@
   </si>
   <si>
     <t>0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пролет в сторону машины</t>
+  </si>
+  <si>
+    <t>Пролет в обратную сторону</t>
   </si>
 </sst>
 </file>
@@ -939,11 +941,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" activeCellId="1" sqref="C29 H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2009,6 +2011,34 @@
       <c r="A44" s="19"/>
       <c r="C44" s="7"/>
     </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="26">
+        <v>0.64671296296296299</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="26">
+        <v>0.64724537037037033</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2.3148148148148146E-4</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FC4F3-1229-0D4A-B000-CF84E9635988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98595754-2BC9-AB4E-AC6F-0012055D1143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Пролет в обратную сторону</t>
+  </si>
+  <si>
+    <t>около микрофона полеты</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +322,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -361,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +461,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,11 +957,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" activeCellId="1" sqref="C29 H35"/>
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2039,6 +2055,25 @@
         <v>83</v>
       </c>
     </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="30">
+        <v>46</v>
+      </c>
+      <c r="B48" s="31">
+        <v>0.64966435185185178</v>
+      </c>
+      <c r="C48" s="31">
+        <v>4.6296296296296294E-5</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98595754-2BC9-AB4E-AC6F-0012055D1143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFB4B54-34F9-AB45-AC22-FAC24F6ED3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -286,7 +286,10 @@
     <t>Пролет в обратную сторону</t>
   </si>
   <si>
-    <t>около микрофона полеты</t>
+    <t>около микрофона зависание</t>
+  </si>
+  <si>
+    <t>Пролет туда и обратно</t>
   </si>
 </sst>
 </file>
@@ -957,11 +960,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2027,18 +2030,33 @@
       <c r="A44" s="19"/>
       <c r="C44" s="7"/>
     </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+    </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="30">
         <v>44</v>
       </c>
-      <c r="B46" s="26">
-        <v>0.64671296296296299</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1.5046296296296297E-4</v>
-      </c>
+      <c r="B46" s="31">
+        <v>0.64965277777777775</v>
+      </c>
+      <c r="C46" s="31">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2046,32 +2064,41 @@
         <v>45</v>
       </c>
       <c r="B47" s="26">
-        <v>0.64724537037037033</v>
+        <v>0.64677083333333341</v>
       </c>
       <c r="C47" s="7">
-        <v>2.3148148148148146E-4</v>
+        <v>1.7361111111111112E-4</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="26">
+        <v>0.64725694444444437</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1.2847222222222223E-3</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="30">
-        <v>46</v>
-      </c>
-      <c r="B48" s="31">
-        <v>0.64966435185185178</v>
-      </c>
-      <c r="C48" s="31">
-        <v>4.6296296296296294E-5</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30" t="s">
-        <v>84</v>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="31">
+        <v>0.64671296296296299</v>
+      </c>
+      <c r="C49" s="31">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFB4B54-34F9-AB45-AC22-FAC24F6ED3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9284692E-AD79-B64E-B2E2-100F0BD80821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2092,10 +2092,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="31">
-        <v>0.64671296296296299</v>
+        <v>0.64324074074074067</v>
       </c>
       <c r="C49" s="31">
-        <v>1.3888888888888889E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>85</v>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9284692E-AD79-B64E-B2E2-100F0BD80821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE5CE6-26A1-F748-9848-53FDCC5ADB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Пролет туда и обратно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Весь полет 300 дрона </t>
   </si>
 </sst>
 </file>
@@ -960,11 +963,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2092,13 +2095,82 @@
         <v>47</v>
       </c>
       <c r="B49" s="31">
-        <v>0.64324074074074067</v>
+        <v>0.64671296296296299</v>
       </c>
       <c r="C49" s="31">
-        <v>8.3333333333333332E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="26">
+        <v>0.67598379629629601</v>
+      </c>
+      <c r="C50" s="7">
+        <v>5.7870370370370366E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="31">
+        <v>0.64967592592592593</v>
+      </c>
+      <c r="C51" s="31">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="31">
+        <v>0.64324074074074067</v>
+      </c>
+      <c r="C52" s="31">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="26">
+        <v>0.64677083333333341</v>
+      </c>
+      <c r="C53" s="31">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="26">
+        <v>0.67673611111111109</v>
+      </c>
+      <c r="C54" s="31">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="26">
+        <v>0.64324074074074067</v>
+      </c>
+      <c r="C55" s="7">
+        <v>4.0972222222222222E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE5CE6-26A1-F748-9848-53FDCC5ADB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48A8D03-6C3F-3E49-9935-FD2B5B48DB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t xml:space="preserve">Весь полет 300 дрона </t>
+  </si>
+  <si>
+    <t>Портрет дрона секунда</t>
   </si>
 </sst>
 </file>
@@ -966,8 +969,8 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2125,6 +2128,9 @@
       <c r="C51" s="31">
         <v>1.1574074074074073E-5</v>
       </c>
+      <c r="H51" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48A8D03-6C3F-3E49-9935-FD2B5B48DB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A36FE73-960A-4A40-AE15-01F58151ADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="3" r:id="rId1"/>
@@ -966,11 +966,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2179,6 +2179,28 @@
         <v>4.0972222222222222E-2</v>
       </c>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="26">
+        <v>0.64810185185185187</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="26">
+        <v>0.64740740740740743</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A36FE73-960A-4A40-AE15-01F58151ADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1145F9-463A-C548-A9DC-07227F1BF380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Портрет дрона секунда</t>
+  </si>
+  <si>
+    <t>Пусто</t>
   </si>
 </sst>
 </file>
@@ -969,8 +972,8 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2184,22 +2187,17 @@
         <v>54</v>
       </c>
       <c r="B56" s="26">
-        <v>0.64810185185185187</v>
+        <v>0.65087962962962964</v>
       </c>
       <c r="C56" s="7">
-        <v>1.1574074074074073E-5</v>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="26">
-        <v>0.64740740740740743</v>
-      </c>
-      <c r="C57" s="7">
-        <v>1.1574074074074073E-5</v>
-      </c>
+      <c r="C57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1145F9-463A-C548-A9DC-07227F1BF380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF95E297-7801-A243-A523-F105395D9802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Пусто</t>
+  </si>
+  <si>
+    <t>Шум</t>
   </si>
 </sst>
 </file>
@@ -972,8 +975,8 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2176,10 +2179,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="26">
-        <v>0.64324074074074067</v>
+        <v>0.64810185185185187</v>
       </c>
       <c r="C55" s="7">
-        <v>4.0972222222222222E-2</v>
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2197,7 +2203,15 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C57" s="7"/>
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="26">
+        <v>0.65226851851851853</v>
+      </c>
+      <c r="C57" s="7">
+        <v>5.7870370370370366E-5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF95E297-7801-A243-A523-F105395D9802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEE61EA-4223-D94D-9495-47461D81AE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -301,7 +301,10 @@
     <t>Пусто</t>
   </si>
   <si>
-    <t>Шум</t>
+    <t>Шум сторонний</t>
+  </si>
+  <si>
+    <t>с другим еще</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
@@ -2213,6 +2216,20 @@
         <v>5.7870370370370366E-5</v>
       </c>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="31">
+        <v>0.64324074074074067</v>
+      </c>
+      <c r="C58" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEE61EA-4223-D94D-9495-47461D81AE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C670B775-E7CA-BA49-B16B-F56DECA4FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>с другим еще</t>
+  </si>
+  <si>
+    <t>БПЛА около микрофона (пример для пеленга)</t>
   </si>
 </sst>
 </file>
@@ -975,11 +978,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2230,6 +2233,20 @@
         <v>90</v>
       </c>
     </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="26">
+        <v>0.64682870370370371</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C670B775-E7CA-BA49-B16B-F56DECA4FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1EDE44-E96D-7D43-8341-33C26F0A8A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="3" r:id="rId1"/>
@@ -307,7 +307,7 @@
     <t>с другим еще</t>
   </si>
   <si>
-    <t>БПЛА около микрофона (пример для пеленга)</t>
+    <t>БПЛА недалеко от микрофона (пример для пеленга)</t>
   </si>
 </sst>
 </file>
@@ -978,11 +978,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2247,6 +2247,17 @@
         <v>91</v>
       </c>
     </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="26">
+        <v>0.64671296296296299</v>
+      </c>
+      <c r="C60" s="7">
+        <v>3.4722222222222224E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1EDE44-E96D-7D43-8341-33C26F0A8A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE6C82-C1DA-2C42-A6D2-EDED9BD6E784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,7 +982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE6C82-C1DA-2C42-A6D2-EDED9BD6E784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6374451C-71AA-F544-8CDC-B7914D44085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>БПЛА недалеко от микрофона (пример для пеленга)</t>
+  </si>
+  <si>
+    <t>Портрет дрона секунда 2</t>
   </si>
 </sst>
 </file>
@@ -978,11 +981,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2082,10 +2085,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="26">
-        <v>0.64677083333333341</v>
+        <v>0.64674768518518522</v>
       </c>
       <c r="C47" s="7">
-        <v>1.7361111111111112E-4</v>
+        <v>2.8935185185185189E-4</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>82</v>
@@ -2110,10 +2113,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="31">
-        <v>0.64671296296296299</v>
+        <v>0.64674768518518522</v>
       </c>
       <c r="C49" s="31">
-        <v>1.3888888888888889E-3</v>
+        <v>5.7870370370370378E-4</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>85</v>
@@ -2168,6 +2171,9 @@
       <c r="C53" s="31">
         <v>1.1574074074074073E-5</v>
       </c>
+      <c r="H53" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -2256,6 +2262,17 @@
       </c>
       <c r="C60" s="7">
         <v>3.4722222222222224E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="26">
+        <v>0.64687499999999998</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1.1574074074074073E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6374451C-71AA-F544-8CDC-B7914D44085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA028474-97F0-2842-9EF6-E64A6521F4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,8 +984,8 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA028474-97F0-2842-9EF6-E64A6521F4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E193B-A2D6-0D44-8981-3EF5A71A8313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="3" r:id="rId1"/>
@@ -984,8 +984,8 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2088,7 +2088,7 @@
         <v>0.64674768518518522</v>
       </c>
       <c r="C47" s="7">
-        <v>2.8935185185185189E-4</v>
+        <v>3.4722222222222224E-4</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>82</v>

--- a/Таблицы Данных/Conducting an experiment 30_08.xlsx
+++ b/Таблицы Данных/Conducting an experiment 30_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogda/Desktop/Acoustics/Scientific/Таблицы Данных/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E193B-A2D6-0D44-8981-3EF5A71A8313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE1177-BCC1-BC43-B797-CEB19B97E634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurement" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Портрет дрона секунда 2</t>
+  </si>
+  <si>
+    <t>дистанция примерно 75 метров (расстояние 90)</t>
+  </si>
+  <si>
+    <t>дистанция примерно 150 метров (расстояние 158)</t>
   </si>
 </sst>
 </file>
@@ -981,11 +987,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2275,6 +2281,34 @@
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="26">
+        <v>0.64682870370370371</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="26">
+        <v>0.64688657407407402</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
